--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academie\ED\GPSP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C3C951-31C9-484A-B5E7-EAE512AAFCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C04411A-9F64-48A0-B497-694F001875B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16410" windowWidth="29040" windowHeight="15840" xr2:uid="{31CC194B-32F3-4D48-89E8-E13D34989EC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31CC194B-32F3-4D48-89E8-E13D34989EC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="74">
   <si>
     <t>Nr.crt.</t>
   </si>
@@ -143,9 +143,6 @@
     <t>01011</t>
   </si>
   <si>
-    <t>AAX</t>
-  </si>
-  <si>
     <t>DEC</t>
   </si>
   <si>
@@ -200,21 +197,9 @@
     <t>1AA</t>
   </si>
   <si>
-    <t>OUTPUTID</t>
-  </si>
-  <si>
     <t>00011</t>
   </si>
   <si>
-    <t>1XX</t>
-  </si>
-  <si>
-    <t>OUTPUT</t>
-  </si>
-  <si>
-    <t>00100</t>
-  </si>
-  <si>
     <t>RP, C</t>
   </si>
   <si>
@@ -252,6 +237,27 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>ID, RA</t>
+  </si>
+  <si>
+    <t>RB, RA</t>
+  </si>
+  <si>
+    <t>JMPC</t>
+  </si>
+  <si>
+    <t>JMPZ</t>
+  </si>
+  <si>
+    <t>OUTPUT[ID,DATA]</t>
+  </si>
+  <si>
+    <t>OUTPUTL[ID,DATA16B]</t>
+  </si>
+  <si>
+    <t>ID, RP</t>
   </si>
 </sst>
 </file>
@@ -330,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -353,6 +359,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,16 +702,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B69D9DE-5F4F-46F6-8C92-E647277A100A}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -728,7 +743,7 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>4</v>
@@ -751,7 +766,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
@@ -774,7 +789,7 @@
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20" t="s">
@@ -799,7 +814,7 @@
     </row>
     <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20" t="s">
@@ -812,7 +827,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -820,11 +835,11 @@
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>8</v>
@@ -845,7 +860,7 @@
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20" t="s">
@@ -870,7 +885,7 @@
     </row>
     <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20" t="s">
@@ -895,7 +910,7 @@
     </row>
     <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20" t="s">
@@ -908,7 +923,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -916,7 +931,7 @@
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>27</v>
@@ -938,7 +953,7 @@
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
@@ -960,7 +975,7 @@
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17" t="s">
@@ -980,11 +995,11 @@
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>28</v>
@@ -1000,7 +1015,7 @@
     </row>
     <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>30</v>
@@ -1022,7 +1037,7 @@
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
@@ -1044,7 +1059,7 @@
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
@@ -1064,11 +1079,11 @@
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>31</v>
@@ -1084,7 +1099,7 @@
     </row>
     <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>32</v>
@@ -1096,7 +1111,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -1104,19 +1119,19 @@
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -1124,19 +1139,19 @@
     </row>
     <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -1145,19 +1160,19 @@
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="E21" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -1165,16 +1180,16 @@
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>11</v>
@@ -1187,16 +1202,16 @@
     </row>
     <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>11</v>
@@ -1211,16 +1226,16 @@
     </row>
     <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>13</v>
@@ -1235,16 +1250,16 @@
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>16</v>
@@ -1259,16 +1274,16 @@
     </row>
     <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>18</v>
@@ -1283,16 +1298,16 @@
     </row>
     <row r="27" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>20</v>
@@ -1306,122 +1321,220 @@
     </row>
     <row r="28" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
+      <c r="A29" s="22">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="23">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="24">
         <v>0</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32" s="24">
         <v>1</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
         <v>0</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>3</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>35</v>
+      <c r="D38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academie\ED\GPSP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C04411A-9F64-48A0-B497-694F001875B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFE47B1-D6B1-4583-8FAA-EDF18C8FF86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31CC194B-32F3-4D48-89E8-E13D34989EC2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="78">
   <si>
     <t>Nr.crt.</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>ID, RP</t>
+  </si>
+  <si>
+    <t>ID, C</t>
+  </si>
+  <si>
+    <t>DDDDDDDD</t>
+  </si>
+  <si>
+    <t>CP and V are the same functionally, to be replaced with SP operations</t>
+  </si>
+  <si>
+    <t>AAPXXXXX</t>
   </si>
 </sst>
 </file>
@@ -336,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -366,6 +378,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -702,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B69D9DE-5F4F-46F6-8C92-E647277A100A}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +733,7 @@
     <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -741,7 +756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
@@ -764,7 +779,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -787,7 +802,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>59</v>
       </c>
@@ -812,7 +827,7 @@
       </c>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>62</v>
       </c>
@@ -832,8 +847,11 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>63</v>
       </c>
@@ -858,7 +876,7 @@
       </c>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
@@ -883,7 +901,7 @@
       </c>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>65</v>
       </c>
@@ -908,7 +926,7 @@
       </c>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>66</v>
       </c>
@@ -923,13 +941,13 @@
         <v>26</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
@@ -951,7 +969,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>61</v>
       </c>
@@ -973,7 +991,7 @@
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
@@ -993,7 +1011,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>62</v>
       </c>
@@ -1013,7 +1031,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>60</v>
       </c>
@@ -1035,7 +1053,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>61</v>
       </c>
@@ -1057,7 +1075,7 @@
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
@@ -1418,7 +1436,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>0</v>
       </c>
@@ -1441,7 +1459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>1</v>
       </c>
@@ -1458,7 +1476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>2</v>
       </c>
@@ -1479,15 +1497,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>3</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>53</v>
@@ -1495,45 +1511,70 @@
       <c r="E36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
+      <c r="F36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
         <v>4</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
+        <v>5</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="E38" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
-        <v>5</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="3" t="s">
+    <row r="39" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>6</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="E39" s="25">
+        <v>110</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="18" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academie\ED\GPSP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EFC2FD-897A-4F71-B0C3-01BA50254517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8905E1E3-DDDA-4D94-9C09-97A34AD7AB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31CC194B-32F3-4D48-89E8-E13D34989EC2}"/>
+    <workbookView xWindow="28680" yWindow="-16410" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{31CC194B-32F3-4D48-89E8-E13D34989EC2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
+    <sheet name="CompilerStatus" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="113">
   <si>
     <t>Nr.crt.</t>
   </si>
@@ -267,13 +268,121 @@
   </si>
   <si>
     <t>RP, SP</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>0x41</t>
+  </si>
+  <si>
+    <t>0x42</t>
+  </si>
+  <si>
+    <t>0x43</t>
+  </si>
+  <si>
+    <t>0x44</t>
+  </si>
+  <si>
+    <t>0x45</t>
+  </si>
+  <si>
+    <t>0x48</t>
+  </si>
+  <si>
+    <t>0x49</t>
+  </si>
+  <si>
+    <t>0x4a</t>
+  </si>
+  <si>
+    <t>0x4b</t>
+  </si>
+  <si>
+    <t>0x50</t>
+  </si>
+  <si>
+    <t>0x51</t>
+  </si>
+  <si>
+    <t>0x52</t>
+  </si>
+  <si>
+    <t>0x53</t>
+  </si>
+  <si>
+    <t>0x5(8+AA*2)</t>
+  </si>
+  <si>
+    <t>0x59</t>
+  </si>
+  <si>
+    <t>0x6(AA*2)</t>
+  </si>
+  <si>
+    <t>0x61</t>
+  </si>
+  <si>
+    <t>0x68</t>
+  </si>
+  <si>
+    <t>0x69</t>
+  </si>
+  <si>
+    <t>0x70</t>
+  </si>
+  <si>
+    <t>0x71</t>
+  </si>
+  <si>
+    <t>0x72</t>
+  </si>
+  <si>
+    <t>0x73</t>
+  </si>
+  <si>
+    <t>0x74</t>
+  </si>
+  <si>
+    <t>0x75</t>
+  </si>
+  <si>
+    <t>0x76</t>
+  </si>
+  <si>
+    <t>0x77</t>
+  </si>
+  <si>
+    <t>0x1(AA)</t>
+  </si>
+  <si>
+    <t>0x1(4+AA)</t>
+  </si>
+  <si>
+    <t>0x1c</t>
+  </si>
+  <si>
+    <t>0x1d</t>
+  </si>
+  <si>
+    <t>0x1e</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>RA, [RP]</t>
+  </si>
+  <si>
+    <t>DDDDDDD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +434,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -358,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -378,18 +494,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -731,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B69D9DE-5F4F-46F6-8C92-E647277A100A}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -743,7 +855,7 @@
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="18"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -790,7 +902,9 @@
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="3" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -815,7 +929,9 @@
         <v>6</v>
       </c>
       <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -842,7 +958,9 @@
       <c r="H4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -867,7 +985,9 @@
         <v>68</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -890,7 +1010,9 @@
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -913,31 +1035,33 @@
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -958,9 +1082,11 @@
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>55</v>
       </c>
@@ -983,9 +1109,11 @@
         <v>6</v>
       </c>
       <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>53</v>
       </c>
@@ -1006,9 +1134,11 @@
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>56</v>
       </c>
@@ -1031,9 +1161,11 @@
         <v>6</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1042,9 +1174,8 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1053,9 +1184,8 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>54</v>
       </c>
@@ -1076,9 +1206,11 @@
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>55</v>
       </c>
@@ -1101,9 +1233,11 @@
         <v>6</v>
       </c>
       <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>53</v>
       </c>
@@ -1124,9 +1258,11 @@
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>56</v>
       </c>
@@ -1149,9 +1285,11 @@
         <v>6</v>
       </c>
       <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1160,9 +1298,8 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1171,9 +1308,8 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>54</v>
       </c>
@@ -1192,9 +1328,11 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>55</v>
       </c>
@@ -1213,9 +1351,11 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1224,9 +1364,8 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1235,9 +1374,8 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>54</v>
       </c>
@@ -1256,9 +1394,11 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>55</v>
       </c>
@@ -1277,20 +1417,22 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-    </row>
-    <row r="29" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1299,9 +1441,8 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>54</v>
       </c>
@@ -1322,9 +1463,11 @@
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>55</v>
       </c>
@@ -1343,31 +1486,33 @@
       <c r="F31" s="13"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-    </row>
-    <row r="34" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>54</v>
       </c>
@@ -1390,9 +1535,11 @@
         <v>6</v>
       </c>
       <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>55</v>
       </c>
@@ -1415,9 +1562,11 @@
         <v>6</v>
       </c>
       <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
@@ -1440,9 +1589,11 @@
         <v>6</v>
       </c>
       <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>56</v>
       </c>
@@ -1465,9 +1616,11 @@
         <v>6</v>
       </c>
       <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>57</v>
       </c>
@@ -1490,9 +1643,11 @@
         <v>6</v>
       </c>
       <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:9" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>58</v>
       </c>
@@ -1509,10 +1664,12 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
+      <c r="I39" s="14" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25">
+      <c r="A40" s="21">
         <v>6</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -1534,10 +1691,12 @@
         <v>6</v>
       </c>
       <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
+      <c r="I40" s="14" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
+      <c r="A41" s="21">
         <v>7</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -1559,7 +1718,9 @@
         <v>6</v>
       </c>
       <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
+      <c r="I41" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
@@ -1579,8 +1740,8 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:9" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
+    <row r="44" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
         <v>0</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -1598,10 +1759,12 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:9" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+      <c r="I44" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
         <v>1</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -1619,29 +1782,31 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-    </row>
-    <row r="47" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
+      <c r="I45" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
     </row>
     <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
@@ -1738,8 +1903,8 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
+    <row r="52" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
         <v>4</v>
       </c>
       <c r="B52" s="13" t="s">
@@ -1754,15 +1919,17 @@
       <c r="E52" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>6</v>
+      <c r="F52" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-    </row>
-    <row r="53" spans="1:9" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
+      <c r="I52" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
         <v>5</v>
       </c>
       <c r="B53" s="13" t="s">
@@ -1782,10 +1949,12 @@
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-    </row>
-    <row r="54" spans="1:9" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
+      <c r="I53" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
         <v>6</v>
       </c>
       <c r="B54" s="13" t="s">
@@ -1797,7 +1966,7 @@
       <c r="D54" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="17">
         <v>110</v>
       </c>
       <c r="F54" s="14" t="s">
@@ -1809,7 +1978,1254 @@
       <c r="H54" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I54" s="14"/>
+      <c r="I54" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6A34C9-6C3C-4780-99A8-1E2BFE417F6F}">
+  <dimension ref="A1:J54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21">
+        <v>6</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
+        <v>7</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <v>0</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>1</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+    </row>
+    <row r="48" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>0</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>2</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>3</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>4</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>5</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>6</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="17">
+        <v>110</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academie\ED\GPSP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8905E1E3-DDDA-4D94-9C09-97A34AD7AB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9A11B0-D420-417D-9BF6-07E6EF38186B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16410" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{31CC194B-32F3-4D48-89E8-E13D34989EC2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="118">
   <si>
     <t>Nr.crt.</t>
   </si>
@@ -372,10 +372,25 @@
     <t>OK</t>
   </si>
   <si>
-    <t>RA, [RP]</t>
-  </si>
-  <si>
     <t>DDDDDDD</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>RP, [V]</t>
+  </si>
+  <si>
+    <t>PPPPPPPP</t>
+  </si>
+  <si>
+    <t>0x46</t>
+  </si>
+  <si>
+    <t>RA, [RP]| [RP], RA</t>
+  </si>
+  <si>
+    <t>SP, RP | RP, SP</t>
   </si>
 </sst>
 </file>
@@ -1992,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6A34C9-6C3C-4780-99A8-1E2BFE417F6F}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2158,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>7</v>
@@ -2186,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>7</v>
@@ -2207,15 +2222,34 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
+      <c r="A8" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -3159,7 +3193,7 @@
         <v>18</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -3226,6 +3260,9 @@
       <c r="I54" s="14" t="s">
         <v>109</v>
       </c>
+      <c r="J54" s="12" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
